--- a/specific_variables/flux-estimates-level2.xlsx
+++ b/specific_variables/flux-estimates-level2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/NC_parse_master/specific_variables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/specific_variables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C018578B-0DA4-1F43-A08D-C7AB741C4CF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78959AB-A5B7-8042-BFB1-5001537D4422}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50040" yWindow="-3140" windowWidth="16360" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36920" yWindow="-3140" windowWidth="16360" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables-specific" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="79">
   <si>
     <t>Variable</t>
   </si>
@@ -109,9 +109,6 @@
     <t>J m-2 s-1</t>
   </si>
   <si>
-    <t>Buoyancy Flux (rho.cp.&lt;w'Ts'&gt;)</t>
-  </si>
-  <si>
     <t>cell_methods</t>
   </si>
   <si>
@@ -226,12 +223,6 @@
     <t>bad_data, good_data, suspect_data</t>
   </si>
   <si>
-    <t>0,1, 2, 3</t>
-  </si>
-  <si>
-    <t>bad_data, good_data _good_for_reasearch, suspect_data_good_for_general_use, suspect_data_requires_further_checking_but_may_be_ok_for_general_use</t>
-  </si>
-  <si>
     <t>qc_flag_kurtosis_u</t>
   </si>
   <si>
@@ -245,13 +236,39 @@
   </si>
   <si>
     <t>Height of instrument platform above snow surface</t>
+  </si>
+  <si>
+    <t>&lt;derived from file&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buoyancy Flux (&lt;w'Ts'&gt;) </t>
+  </si>
+  <si>
+    <t>0b,1b, 2b</t>
+  </si>
+  <si>
+    <t>bad_data
+good_data 
+suspect_data</t>
+  </si>
+  <si>
+    <t>0b,1b, 2b, 3b</t>
+  </si>
+  <si>
+    <t>bad_data
+good_data _good_for_reasearch
+suspect_data_good_for_general_use
+suspect_data_requires_further_checking_but_may_be_ok_for_general_use</t>
+  </si>
+  <si>
+    <t>time: mean</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -286,6 +303,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -314,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -353,12 +382,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -367,6 +390,16 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -685,10 +718,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F971"/>
+  <dimension ref="A1:F953"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94:C103"/>
+      <selection activeCell="C30" sqref="A30:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -754,73 +787,78 @@
     </row>
     <row r="6" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C7" s="7">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="7">
-        <v>-1E+20</v>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C10" s="4"/>
-    </row>
     <row r="11" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
@@ -830,32 +868,31 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="7">
         <v>-1E+20</v>
       </c>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C18" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="8">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>19</v>
       </c>
@@ -863,99 +900,100 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-    </row>
-    <row r="22" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="17" t="s">
+    <row r="21" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+    </row>
+    <row r="22" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+    </row>
+    <row r="23" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="18">
+        <v>-1E+20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-    </row>
-    <row r="23" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="17"/>
-    </row>
-    <row r="27" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="20">
-        <v>-1E+20</v>
-      </c>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="19">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17" t="s">
+    </row>
+    <row r="29" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="19">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17" t="s">
+      <c r="C29" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="4"/>
     </row>
     <row r="33" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -990,114 +1028,119 @@
     </row>
     <row r="37" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="38" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
+      </c>
+      <c r="C38" s="7">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="7">
-        <v>-1E+20</v>
-      </c>
-      <c r="D39" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="40" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="8">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" s="8">
-        <v>36000</v>
+        <v>19</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" t="s">
-        <v>19</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="C42" s="4"/>
     </row>
     <row r="43" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>27</v>
+      </c>
       <c r="C43" s="4"/>
     </row>
     <row r="44" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
-        <v>27</v>
-      </c>
-      <c r="C44" s="4"/>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="45" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>22</v>
+        <v>10</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D46" s="4"/>
     </row>
     <row r="47" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="C48" s="7">
+        <v>-1E+20</v>
+      </c>
     </row>
     <row r="49" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>29</v>
+      <c r="A49" s="15"/>
+      <c r="B49" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" t="s">
-        <v>16</v>
-      </c>
-      <c r="C50" s="7">
-        <v>-1E+20</v>
+      <c r="A50" s="15"/>
+      <c r="B50" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D51" s="4"/>
     </row>
     <row r="52" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
@@ -1112,7 +1155,7 @@
     </row>
     <row r="54" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C54" s="4"/>
     </row>
@@ -1137,84 +1180,88 @@
         <v>3</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D57" s="4"/>
     </row>
     <row r="58" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
-        <v>13</v>
-      </c>
-      <c r="C58" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="59" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
-        <v>14</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>34</v>
+        <v>16</v>
+      </c>
+      <c r="C59" s="7">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" s="7">
-        <v>-1E+20</v>
+      <c r="A60" s="15"/>
+      <c r="B60" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" t="s">
-        <v>30</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>31</v>
+      <c r="A61" s="15"/>
+      <c r="B61" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B63" t="s">
         <v>19</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C63" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-    </row>
     <row r="64" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" t="s">
-        <v>35</v>
-      </c>
       <c r="C64" s="4"/>
     </row>
     <row r="65" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="A65" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" s="4"/>
     </row>
     <row r="66" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
-        <v>10</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B68" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>35</v>
@@ -1222,589 +1269,604 @@
     </row>
     <row r="69" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B70" t="s">
-        <v>16</v>
-      </c>
-      <c r="C70" s="7">
-        <v>-1E+20</v>
+        <v>14</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" s="7">
+        <v>-1E+20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="15"/>
+      <c r="B72" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="15"/>
+      <c r="B73" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B74" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" t="s">
-        <v>19</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C73" s="4"/>
-    </row>
-    <row r="74" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" t="s">
-        <v>38</v>
-      </c>
-      <c r="C74" s="4"/>
     </row>
     <row r="75" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" t="s">
-        <v>10</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="C76" s="4"/>
     </row>
     <row r="77" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" t="s">
-        <v>3</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="A77" t="s">
+        <v>37</v>
+      </c>
+      <c r="C77" s="4"/>
     </row>
     <row r="78" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" t="s">
-        <v>13</v>
-      </c>
-      <c r="C78" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="79" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B81" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B82" t="s">
         <v>16</v>
       </c>
-      <c r="C80" s="7">
+      <c r="C82" s="7">
         <v>-1E+20</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" t="s">
+    <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="15"/>
+      <c r="B83" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="15"/>
+      <c r="B84" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B85" t="s">
+        <v>29</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" t="s">
+    </row>
+    <row r="86" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B86" t="s">
         <v>19</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C86" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C83" s="4"/>
-    </row>
-    <row r="84" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" t="s">
+    <row r="87" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C87" s="4"/>
+    </row>
+    <row r="88" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>40</v>
+      </c>
+      <c r="C88" s="4"/>
+    </row>
+    <row r="89" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B89" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B91" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D91" s="4"/>
+    </row>
+    <row r="92" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B92" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C84" s="4"/>
-    </row>
-    <row r="85" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B85" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" t="s">
-        <v>10</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" t="s">
-        <v>3</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B88" t="s">
-        <v>13</v>
-      </c>
-      <c r="C88" s="4"/>
-    </row>
-    <row r="89" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B89" t="s">
-        <v>14</v>
-      </c>
-      <c r="C89" s="4" t="s">
+    </row>
+    <row r="93" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B93" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93" s="7">
+        <v>-1E+20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="15"/>
+      <c r="B94" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="15"/>
+      <c r="B95" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B96" t="s">
+        <v>29</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B97" t="s">
+        <v>19</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C98" s="4"/>
+    </row>
+    <row r="99" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B90" t="s">
-        <v>16</v>
-      </c>
-      <c r="C90" s="7">
-        <v>-1E+20</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B91" t="s">
-        <v>30</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B92" t="s">
-        <v>19</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C93" s="4"/>
-    </row>
-    <row r="94" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B94" s="9"/>
-      <c r="C94" s="10"/>
-    </row>
-    <row r="95" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="9"/>
-      <c r="B95" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="9"/>
-      <c r="B96" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="9"/>
-      <c r="B97" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C97" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="9"/>
-      <c r="B98" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C98" s="10"/>
-    </row>
-    <row r="99" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="9"/>
-      <c r="B99" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D99" s="4"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="10"/>
     </row>
     <row r="100" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="9"/>
       <c r="B100" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C100" s="11" t="s">
-        <v>66</v>
+        <v>8</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="9"/>
-      <c r="B101" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C101" s="13" t="s">
-        <v>67</v>
+      <c r="B101" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="9"/>
-      <c r="B102" s="9"/>
-      <c r="C102" s="10"/>
+      <c r="B102" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" s="8">
+        <v>1</v>
+      </c>
+      <c r="D102" s="4"/>
     </row>
     <row r="103" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B103" s="9"/>
-      <c r="C103" s="10"/>
+      <c r="A103" s="9"/>
+      <c r="B103" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="104" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="9"/>
       <c r="B104" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="9"/>
-      <c r="B105" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>11</v>
+      <c r="B105" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="9"/>
-      <c r="B106" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C106" s="8">
-        <v>1</v>
-      </c>
+      <c r="B106" s="9"/>
+      <c r="C106" s="10"/>
     </row>
     <row r="107" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="9"/>
-      <c r="B107" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="A107" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B107" s="9"/>
       <c r="C107" s="10"/>
     </row>
     <row r="108" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="9"/>
       <c r="B108" s="9" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="9"/>
       <c r="B109" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C109" s="11" t="s">
-        <v>66</v>
+        <v>10</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="9"/>
-      <c r="B110" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C110" s="13" t="s">
-        <v>67</v>
+      <c r="B110" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="9"/>
-      <c r="B111" s="9"/>
+      <c r="B111" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="C111" s="10"/>
-      <c r="D111" s="4"/>
     </row>
     <row r="112" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B112" s="9"/>
-      <c r="C112" s="10"/>
+      <c r="A112" s="9"/>
+      <c r="B112" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="113" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="9"/>
-      <c r="B113" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>44</v>
+      <c r="A113" s="16"/>
+      <c r="B113" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="9"/>
-      <c r="B114" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>11</v>
-      </c>
+      <c r="A114" s="16"/>
+      <c r="B114" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C114" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D114" s="4"/>
     </row>
     <row r="115" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="9"/>
-      <c r="B115" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C115" s="8">
-        <v>1</v>
-      </c>
+      <c r="B115" s="9"/>
+      <c r="C115" s="10"/>
     </row>
     <row r="116" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="9"/>
-      <c r="B116" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="A116" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B116" s="9"/>
       <c r="C116" s="10"/>
     </row>
     <row r="117" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="9"/>
       <c r="B117" s="9" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="9"/>
       <c r="B118" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C118" s="11" t="s">
-        <v>66</v>
+        <v>10</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="9"/>
-      <c r="B119" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C119" s="13" t="s">
-        <v>67</v>
+      <c r="B119" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="9"/>
-      <c r="B120" s="9"/>
-      <c r="C120" s="10"/>
+      <c r="B120" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="121" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B121" s="9"/>
-      <c r="C121" s="10"/>
+      <c r="A121" s="9"/>
+      <c r="B121" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="122" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="9"/>
-      <c r="B122" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>44</v>
+      <c r="B122" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C122" s="13" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="9"/>
-      <c r="B123" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C123" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D123" s="4"/>
+      <c r="B123" s="9"/>
+      <c r="C123" s="10"/>
     </row>
     <row r="124" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="9"/>
-      <c r="B124" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C124" s="8">
-        <v>1</v>
-      </c>
+      <c r="A124" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B124" s="9"/>
+      <c r="C124" s="10"/>
     </row>
     <row r="125" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="9"/>
       <c r="B125" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C125" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="126" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="9"/>
       <c r="B126" s="9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="9"/>
       <c r="B127" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C127" s="11" t="s">
-        <v>66</v>
+        <v>3</v>
+      </c>
+      <c r="C127" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="9"/>
-      <c r="B128" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C128" s="13" t="s">
-        <v>67</v>
+      <c r="B128" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="9"/>
-      <c r="B129" s="9"/>
-      <c r="C129" s="10"/>
+      <c r="B129" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C129" s="11" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="130" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B130" s="9"/>
-      <c r="C130" s="10"/>
+      <c r="A130" s="9"/>
+      <c r="B130" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C130" s="13" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="131" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="9"/>
-      <c r="B131" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C131" s="10" t="s">
-        <v>44</v>
-      </c>
+      <c r="B131" s="9"/>
+      <c r="C131" s="10"/>
     </row>
     <row r="132" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="9"/>
-      <c r="B132" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C132" s="10" t="s">
-        <v>11</v>
-      </c>
+      <c r="A132" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B132" s="9"/>
+      <c r="C132" s="10"/>
     </row>
     <row r="133" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="9"/>
       <c r="B133" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C133" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="9"/>
       <c r="B134" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C134" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="135" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="9"/>
       <c r="B135" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C135" s="10" t="s">
-        <v>54</v>
+        <v>3</v>
+      </c>
+      <c r="C135" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="9"/>
       <c r="B136" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C136" s="11" t="s">
-        <v>66</v>
+        <v>14</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="9"/>
-      <c r="B137" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C137" s="13" t="s">
-        <v>67</v>
+      <c r="B137" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C137" s="11" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="9"/>
-      <c r="B138" s="9"/>
-      <c r="C138" s="10"/>
+      <c r="B138" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C138" s="13" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="139" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="16" t="s">
-        <v>71</v>
-      </c>
+      <c r="A139" s="9"/>
       <c r="B139" s="9"/>
       <c r="C139" s="10"/>
     </row>
     <row r="140" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="9"/>
-      <c r="B140" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C140" s="10" t="s">
-        <v>44</v>
-      </c>
+      <c r="A140" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B140" s="9"/>
+      <c r="C140" s="10"/>
     </row>
     <row r="141" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="9"/>
       <c r="B141" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="9"/>
       <c r="B142" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C142" s="8">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="9"/>
       <c r="B143" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C143" s="10"/>
+        <v>3</v>
+      </c>
+      <c r="C143" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="144" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="9"/>
@@ -1812,25 +1874,25 @@
         <v>14</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="9"/>
-      <c r="B145" s="9" t="s">
-        <v>46</v>
+      <c r="B145" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="9"/>
-      <c r="B146" s="12" t="s">
-        <v>47</v>
+      <c r="B146" s="21" t="s">
+        <v>46</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1839,8 +1901,8 @@
       <c r="C147" s="10"/>
     </row>
     <row r="148" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="16" t="s">
-        <v>56</v>
+      <c r="A148" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="B148" s="9"/>
       <c r="C148" s="10"/>
@@ -1851,7 +1913,7 @@
         <v>8</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1875,333 +1937,313 @@
     <row r="152" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="9"/>
       <c r="B152" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C152" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="153" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="9"/>
-      <c r="B153" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C153" s="10" t="s">
-        <v>57</v>
+      <c r="B153" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C153" s="11" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="9"/>
-      <c r="B154" s="9" t="s">
+      <c r="B154" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C154" s="11" t="s">
-        <v>66</v>
+      <c r="C154" s="13" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="9"/>
-      <c r="B155" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C155" s="13" t="s">
-        <v>67</v>
-      </c>
+      <c r="B155" s="9"/>
+      <c r="C155" s="10"/>
     </row>
     <row r="156" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A156" s="9"/>
+      <c r="A156" s="9" t="s">
+        <v>57</v>
+      </c>
       <c r="B156" s="9"/>
       <c r="C156" s="10"/>
     </row>
     <row r="157" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A157" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B157" s="9"/>
-      <c r="C157" s="10"/>
+      <c r="A157" s="9"/>
+      <c r="B157" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="158" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="9"/>
       <c r="B158" s="9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="9"/>
       <c r="B159" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C159" s="10" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="C159" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="9"/>
       <c r="B160" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C160" s="8">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C160" s="10" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="9"/>
-      <c r="B161" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C161" s="10"/>
+      <c r="B161" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C161" s="11" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="162" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="9"/>
-      <c r="B162" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C162" s="10" t="s">
-        <v>59</v>
+      <c r="B162" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C162" s="13" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="9"/>
-      <c r="B163" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C163" s="11" t="s">
-        <v>66</v>
-      </c>
+      <c r="B163" s="9"/>
+      <c r="C163" s="10"/>
     </row>
     <row r="164" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="9"/>
-      <c r="B164" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C164" s="13" t="s">
-        <v>67</v>
-      </c>
+      <c r="A164" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B164" s="9"/>
+      <c r="C164" s="10"/>
     </row>
     <row r="165" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="9"/>
-      <c r="B165" s="9"/>
-      <c r="C165" s="10"/>
+      <c r="B165" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C165" s="10" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="166" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B166" s="9"/>
-      <c r="C166" s="10"/>
+      <c r="A166" s="9"/>
+      <c r="B166" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C166" s="10" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="167" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="9"/>
       <c r="B167" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C167" s="10" t="s">
-        <v>44</v>
+        <v>3</v>
+      </c>
+      <c r="C167" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="9"/>
       <c r="B168" s="9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="9"/>
-      <c r="B169" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C169" s="8">
-        <v>1</v>
+      <c r="B169" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C169" s="11" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="9"/>
-      <c r="B170" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C170" s="10"/>
+      <c r="B170" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C170" s="13" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="171" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="9"/>
-      <c r="B171" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C171" s="10" t="s">
+      <c r="B171" s="9"/>
+      <c r="C171" s="10"/>
+    </row>
+    <row r="172" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A172" s="9" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A172" s="9"/>
-      <c r="B172" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C172" s="14" t="s">
-        <v>68</v>
-      </c>
+      <c r="B172" s="9"/>
+      <c r="C172" s="10"/>
     </row>
     <row r="173" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="9"/>
-      <c r="B173" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C173" s="15" t="s">
-        <v>69</v>
+      <c r="B173" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C173" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="9"/>
-      <c r="B174" s="9"/>
-      <c r="C174" s="10"/>
+      <c r="B174" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C174" s="10" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="175" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A175" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B175" s="9"/>
-      <c r="C175" s="10"/>
+      <c r="A175" s="9"/>
+      <c r="B175" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C175" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="176" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="9"/>
       <c r="B176" s="9" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="9"/>
-      <c r="B177" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C177" s="10" t="s">
-        <v>11</v>
+      <c r="B177" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C177" s="11" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="9"/>
-      <c r="B178" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C178" s="8">
-        <v>1</v>
+      <c r="B178" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C178" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="9"/>
-      <c r="B179" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B179" s="9"/>
       <c r="C179" s="10"/>
     </row>
     <row r="180" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A180" s="9"/>
-      <c r="B180" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C180" s="10" t="s">
+      <c r="A180" s="9" t="s">
         <v>63</v>
       </c>
+      <c r="B180" s="9"/>
+      <c r="C180" s="10"/>
     </row>
     <row r="181" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="9"/>
       <c r="B181" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C181" s="14" t="s">
-        <v>68</v>
+        <v>8</v>
+      </c>
+      <c r="C181" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="9"/>
-      <c r="B182" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C182" s="15" t="s">
-        <v>69</v>
+      <c r="B182" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C182" s="10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="9"/>
-      <c r="B183" s="9"/>
-      <c r="C183" s="10"/>
+      <c r="B183" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C183" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="184" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A184" s="9" t="s">
+      <c r="A184" s="9"/>
+      <c r="B184" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C184" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B184" s="9"/>
-      <c r="C184" s="10"/>
     </row>
     <row r="185" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="9"/>
-      <c r="B185" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C185" s="10" t="s">
-        <v>44</v>
+      <c r="B185" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C185" s="11" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="9"/>
-      <c r="B186" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C186" s="10" t="s">
-        <v>11</v>
+      <c r="B186" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C186" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="9"/>
-      <c r="B187" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C187" s="8">
-        <v>1</v>
-      </c>
+      <c r="B187" s="9"/>
+      <c r="C187" s="10"/>
     </row>
     <row r="188" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A188" s="9"/>
-      <c r="B188" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C188" s="10"/>
+      <c r="C188" s="4"/>
     </row>
     <row r="189" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A189" s="9"/>
-      <c r="B189" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C189" s="10" t="s">
-        <v>65</v>
-      </c>
+      <c r="C189" s="4"/>
     </row>
     <row r="190" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A190" s="9"/>
-      <c r="B190" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C190" s="14" t="s">
-        <v>68</v>
-      </c>
+      <c r="C190" s="4"/>
     </row>
     <row r="191" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A191" s="9"/>
-      <c r="B191" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C191" s="15" t="s">
-        <v>69</v>
-      </c>
+      <c r="C191" s="4"/>
     </row>
     <row r="192" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A192" s="9"/>
-      <c r="B192" s="9"/>
-      <c r="C192" s="10"/>
+      <c r="C192" s="4"/>
     </row>
     <row r="193" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C193" s="4"/>
@@ -4309,34 +4351,24 @@
     <row r="894" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C894" s="4"/>
     </row>
-    <row r="895" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C895" s="4"/>
-    </row>
-    <row r="896" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C896" s="4"/>
-    </row>
-    <row r="897" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C897" s="4"/>
-    </row>
-    <row r="898" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C898" s="4"/>
-    </row>
-    <row r="899" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C899" s="4"/>
-    </row>
-    <row r="900" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="913" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="914" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="915" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4378,24 +4410,6 @@
     <row r="951" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="952" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="953" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="954" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="955" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="956" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="957" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="958" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="959" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="960" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="961" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="962" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="963" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="964" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="965" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="966" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="967" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="968" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="969" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="970" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="971" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/specific_variables/flux-estimates-level2.xlsx
+++ b/specific_variables/flux-estimates-level2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/specific_variables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78959AB-A5B7-8042-BFB1-5001537D4422}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A9E850-CD1C-0443-AB49-F81516E3860A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36920" yWindow="-3140" windowWidth="16360" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="46980" yWindow="-3140" windowWidth="16360" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables-specific" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="77">
   <si>
     <t>Variable</t>
   </si>
@@ -217,12 +217,6 @@
     <t>Quality flag: WTs</t>
   </si>
   <si>
-    <t>0,1, 2</t>
-  </si>
-  <si>
-    <t>bad_data, good_data, suspect_data</t>
-  </si>
-  <si>
     <t>qc_flag_kurtosis_u</t>
   </si>
   <si>
@@ -244,24 +238,19 @@
     <t xml:space="preserve">Buoyancy Flux (&lt;w'Ts'&gt;) </t>
   </si>
   <si>
-    <t>0b,1b, 2b</t>
-  </si>
-  <si>
-    <t>bad_data
-good_data 
-suspect_data</t>
-  </si>
-  <si>
-    <t>0b,1b, 2b, 3b</t>
-  </si>
-  <si>
-    <t>bad_data
-good_data _good_for_reasearch
-suspect_data_good_for_general_use
-suspect_data_requires_further_checking_but_may_be_ok_for_general_use</t>
-  </si>
-  <si>
     <t>time: mean</t>
+  </si>
+  <si>
+    <t>0, 1,  2, 3</t>
+  </si>
+  <si>
+    <t>bad_data good_data _good_for_reasearch suspect_data_good_for_general_use suspect_data_requires_further_checking_but_may_be_ok_for_general_use</t>
+  </si>
+  <si>
+    <t>0, 1, 2</t>
+  </si>
+  <si>
+    <t>bad_data good_data suspect_data</t>
   </si>
 </sst>
 </file>
@@ -373,14 +362,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -399,6 +382,12 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -720,8 +709,8 @@
   </sheetPr>
   <dimension ref="A1:F953"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="A30:C30"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="D110" sqref="D78:D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -802,21 +791,21 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>72</v>
+      <c r="C8" s="15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>72</v>
+      <c r="C9" s="15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -880,16 +869,16 @@
       <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="19" t="s">
-        <v>72</v>
+      <c r="C18" s="17" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>72</v>
+      <c r="C19" s="17" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -901,95 +890,95 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
     </row>
     <row r="22" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+    </row>
+    <row r="23" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-    </row>
-    <row r="23" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="17" t="s">
+    </row>
+    <row r="27" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="16">
+        <v>-1E+20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="18">
-        <v>-1E+20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="19" t="s">
+    <row r="29" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="20" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>78</v>
-      </c>
-    </row>
     <row r="31" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15" t="s">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="13" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1046,16 +1035,16 @@
       <c r="B39" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="19" t="s">
-        <v>72</v>
+      <c r="C39" s="17" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="19" t="s">
-        <v>72</v>
+      <c r="C40" s="17" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1104,8 +1093,8 @@
       <c r="B47" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="20" t="s">
-        <v>73</v>
+      <c r="C47" s="18" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1117,21 +1106,21 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="15"/>
-      <c r="B49" s="15" t="s">
+      <c r="A49" s="13"/>
+      <c r="B49" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="15"/>
-      <c r="B50" s="15" t="s">
+      <c r="A50" s="13"/>
+      <c r="B50" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1201,21 +1190,21 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="15"/>
-      <c r="B60" s="15" t="s">
+      <c r="A60" s="13"/>
+      <c r="B60" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="15"/>
-      <c r="B61" s="15" t="s">
+      <c r="A61" s="13"/>
+      <c r="B61" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1292,21 +1281,21 @@
       </c>
     </row>
     <row r="72" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="15"/>
-      <c r="B72" s="15" t="s">
+      <c r="A72" s="13"/>
+      <c r="B72" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="15"/>
-      <c r="B73" s="15" t="s">
+      <c r="A73" s="13"/>
+      <c r="B73" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1375,21 +1364,21 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="15"/>
-      <c r="B83" s="15" t="s">
+      <c r="A83" s="13"/>
+      <c r="B83" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="15"/>
-      <c r="B84" s="15" t="s">
+      <c r="A84" s="13"/>
+      <c r="B84" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1459,21 +1448,21 @@
       </c>
     </row>
     <row r="94" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="15"/>
-      <c r="B94" s="15" t="s">
+      <c r="A94" s="13"/>
+      <c r="B94" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="15"/>
-      <c r="B95" s="15" t="s">
+      <c r="A95" s="13"/>
+      <c r="B95" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1544,17 +1533,17 @@
       <c r="B104" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C104" s="11" t="s">
-        <v>65</v>
+      <c r="C104" s="21" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="9"/>
-      <c r="B105" s="12" t="s">
+      <c r="B105" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C105" s="13" t="s">
-        <v>66</v>
+      <c r="C105" s="22" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1613,21 +1602,21 @@
       </c>
     </row>
     <row r="113" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="16"/>
-      <c r="B113" s="16" t="s">
+      <c r="A113" s="14"/>
+      <c r="B113" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C113" s="11" t="s">
-        <v>74</v>
+      <c r="C113" s="21" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="16"/>
-      <c r="B114" s="21" t="s">
+      <c r="A114" s="14"/>
+      <c r="B114" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C114" s="13" t="s">
-        <v>75</v>
+      <c r="C114" s="22" t="s">
+        <v>76</v>
       </c>
       <c r="D114" s="4"/>
     </row>
@@ -1681,20 +1670,20 @@
     </row>
     <row r="121" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="9"/>
-      <c r="B121" s="16" t="s">
+      <c r="B121" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C121" s="11" t="s">
-        <v>74</v>
+      <c r="C121" s="21" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="9"/>
-      <c r="B122" s="21" t="s">
+      <c r="B122" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C122" s="13" t="s">
-        <v>75</v>
+      <c r="C122" s="22" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1747,20 +1736,20 @@
     </row>
     <row r="129" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="9"/>
-      <c r="B129" s="16" t="s">
+      <c r="B129" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C129" s="11" t="s">
-        <v>74</v>
+      <c r="C129" s="21" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="9"/>
-      <c r="B130" s="21" t="s">
+      <c r="B130" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C130" s="13" t="s">
-        <v>75</v>
+      <c r="C130" s="22" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1769,8 +1758,8 @@
       <c r="C131" s="10"/>
     </row>
     <row r="132" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="14" t="s">
-        <v>67</v>
+      <c r="A132" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="B132" s="9"/>
       <c r="C132" s="10"/>
@@ -1813,20 +1802,20 @@
     </row>
     <row r="137" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="9"/>
-      <c r="B137" s="16" t="s">
+      <c r="B137" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C137" s="11" t="s">
-        <v>74</v>
+      <c r="C137" s="21" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="9"/>
-      <c r="B138" s="21" t="s">
+      <c r="B138" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C138" s="13" t="s">
-        <v>75</v>
+      <c r="C138" s="22" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1835,8 +1824,8 @@
       <c r="C139" s="10"/>
     </row>
     <row r="140" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="14" t="s">
-        <v>68</v>
+      <c r="A140" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="B140" s="9"/>
       <c r="C140" s="10"/>
@@ -1879,20 +1868,20 @@
     </row>
     <row r="145" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="9"/>
-      <c r="B145" s="16" t="s">
+      <c r="B145" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C145" s="11" t="s">
-        <v>74</v>
+      <c r="C145" s="21" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="9"/>
-      <c r="B146" s="21" t="s">
+      <c r="B146" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C146" s="13" t="s">
-        <v>75</v>
+      <c r="C146" s="22" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1901,7 +1890,7 @@
       <c r="C147" s="10"/>
     </row>
     <row r="148" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="14" t="s">
+      <c r="A148" s="12" t="s">
         <v>55</v>
       </c>
       <c r="B148" s="9"/>
@@ -1945,20 +1934,20 @@
     </row>
     <row r="153" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="9"/>
-      <c r="B153" s="16" t="s">
+      <c r="B153" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C153" s="11" t="s">
-        <v>74</v>
+      <c r="C153" s="21" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="9"/>
-      <c r="B154" s="21" t="s">
+      <c r="B154" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C154" s="13" t="s">
-        <v>75</v>
+      <c r="C154" s="22" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -2011,20 +2000,20 @@
     </row>
     <row r="161" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="9"/>
-      <c r="B161" s="16" t="s">
+      <c r="B161" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C161" s="11" t="s">
-        <v>74</v>
+      <c r="C161" s="21" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="9"/>
-      <c r="B162" s="21" t="s">
+      <c r="B162" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C162" s="13" t="s">
-        <v>75</v>
+      <c r="C162" s="22" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -2077,20 +2066,20 @@
     </row>
     <row r="169" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="9"/>
-      <c r="B169" s="16" t="s">
+      <c r="B169" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C169" s="11" t="s">
-        <v>76</v>
+      <c r="C169" s="21" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="9"/>
-      <c r="B170" s="21" t="s">
+      <c r="B170" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C170" s="13" t="s">
-        <v>77</v>
+      <c r="C170" s="22" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -2143,20 +2132,20 @@
     </row>
     <row r="177" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="9"/>
-      <c r="B177" s="16" t="s">
+      <c r="B177" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C177" s="11" t="s">
-        <v>76</v>
+      <c r="C177" s="21" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="9"/>
-      <c r="B178" s="21" t="s">
+      <c r="B178" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C178" s="13" t="s">
-        <v>77</v>
+      <c r="C178" s="22" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -2209,20 +2198,20 @@
     </row>
     <row r="185" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="9"/>
-      <c r="B185" s="16" t="s">
+      <c r="B185" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C185" s="11" t="s">
-        <v>76</v>
+      <c r="C185" s="21" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="9"/>
-      <c r="B186" s="21" t="s">
+      <c r="B186" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C186" s="13" t="s">
-        <v>77</v>
+      <c r="C186" s="22" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">

--- a/specific_variables/flux-estimates-level2.xlsx
+++ b/specific_variables/flux-estimates-level2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/specific_variables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A9E850-CD1C-0443-AB49-F81516E3860A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF549758-C132-AE46-96D4-CB4A0024891E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46980" yWindow="-3140" windowWidth="16360" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32300" yWindow="-3140" windowWidth="16360" windowHeight="19780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables-specific" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="77">
   <si>
     <t>Variable</t>
   </si>
@@ -241,16 +241,16 @@
     <t>time: mean</t>
   </si>
   <si>
-    <t>0, 1,  2, 3</t>
-  </si>
-  <si>
-    <t>bad_data good_data _good_for_reasearch suspect_data_good_for_general_use suspect_data_requires_further_checking_but_may_be_ok_for_general_use</t>
-  </si>
-  <si>
     <t>0, 1, 2</t>
   </si>
   <si>
     <t>bad_data good_data suspect_data</t>
+  </si>
+  <si>
+    <t>bad_data good_data good_for_reasearch suspect_data_good_for_general_use suspect_data_requires_further_checking_but_may_be_ok_for_general_use</t>
+  </si>
+  <si>
+    <t>0, 1, 2, 3</t>
   </si>
 </sst>
 </file>
@@ -707,10 +707,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F953"/>
+  <dimension ref="A1:F952"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="D110" sqref="D78:D110"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111:XFD111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1534,7 +1534,7 @@
         <v>45</v>
       </c>
       <c r="C104" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1543,7 +1543,7 @@
         <v>46</v>
       </c>
       <c r="C105" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1588,636 +1588,632 @@
     <row r="111" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="9"/>
       <c r="B111" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C111" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="112" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="9"/>
-      <c r="B112" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>48</v>
+      <c r="A112" s="14"/>
+      <c r="B112" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C112" s="21" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="14"/>
-      <c r="B113" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C113" s="21" t="s">
-        <v>75</v>
-      </c>
+      <c r="B113" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C113" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D113" s="4"/>
     </row>
     <row r="114" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="14"/>
-      <c r="B114" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C114" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="D114" s="4"/>
+      <c r="A114" s="9"/>
+      <c r="B114" s="9"/>
+      <c r="C114" s="10"/>
     </row>
     <row r="115" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="9"/>
+      <c r="A115" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="B115" s="9"/>
       <c r="C115" s="10"/>
     </row>
     <row r="116" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B116" s="9"/>
-      <c r="C116" s="10"/>
+      <c r="A116" s="9"/>
+      <c r="B116" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="117" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="9"/>
       <c r="B117" s="9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="9"/>
       <c r="B118" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C118" s="10" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="C118" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="9"/>
       <c r="B119" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C119" s="8">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="9"/>
-      <c r="B120" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>50</v>
+      <c r="B120" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C120" s="21" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="9"/>
-      <c r="B121" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C121" s="21" t="s">
-        <v>75</v>
+      <c r="B121" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C121" s="22" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="9"/>
-      <c r="B122" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C122" s="22" t="s">
-        <v>76</v>
-      </c>
+      <c r="B122" s="9"/>
+      <c r="C122" s="10"/>
     </row>
     <row r="123" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="9"/>
+      <c r="A123" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="B123" s="9"/>
       <c r="C123" s="10"/>
     </row>
     <row r="124" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B124" s="9"/>
-      <c r="C124" s="10"/>
+      <c r="A124" s="9"/>
+      <c r="B124" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="125" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="9"/>
       <c r="B125" s="9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="9"/>
       <c r="B126" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C126" s="10" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="C126" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="9"/>
       <c r="B127" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C127" s="8">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="9"/>
-      <c r="B128" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C128" s="10" t="s">
-        <v>52</v>
+      <c r="B128" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C128" s="21" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="9"/>
-      <c r="B129" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C129" s="21" t="s">
-        <v>75</v>
+      <c r="B129" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C129" s="22" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="9"/>
-      <c r="B130" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C130" s="22" t="s">
-        <v>76</v>
-      </c>
+      <c r="B130" s="9"/>
+      <c r="C130" s="10"/>
     </row>
     <row r="131" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="9"/>
+      <c r="A131" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="B131" s="9"/>
       <c r="C131" s="10"/>
     </row>
     <row r="132" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B132" s="9"/>
-      <c r="C132" s="10"/>
-    </row>
-    <row r="133" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="9"/>
+      <c r="B132" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="9"/>
       <c r="B133" s="9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="9"/>
       <c r="B134" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C134" s="10" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="C134" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="9"/>
       <c r="B135" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C135" s="8">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="9"/>
-      <c r="B136" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C136" s="10" t="s">
-        <v>53</v>
+      <c r="B136" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C136" s="21" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="9"/>
-      <c r="B137" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C137" s="21" t="s">
-        <v>75</v>
+      <c r="B137" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C137" s="22" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="9"/>
-      <c r="B138" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C138" s="22" t="s">
-        <v>76</v>
-      </c>
+      <c r="B138" s="9"/>
+      <c r="C138" s="10"/>
     </row>
     <row r="139" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="9"/>
+      <c r="A139" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="B139" s="9"/>
       <c r="C139" s="10"/>
     </row>
     <row r="140" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B140" s="9"/>
-      <c r="C140" s="10"/>
+      <c r="A140" s="9"/>
+      <c r="B140" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="141" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="9"/>
       <c r="B141" s="9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="9"/>
       <c r="B142" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C142" s="10" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="C142" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="9"/>
       <c r="B143" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C143" s="8">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="9"/>
-      <c r="B144" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C144" s="10" t="s">
-        <v>54</v>
+      <c r="B144" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C144" s="21" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="9"/>
-      <c r="B145" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C145" s="21" t="s">
-        <v>75</v>
+      <c r="B145" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C145" s="22" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="9"/>
-      <c r="B146" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C146" s="22" t="s">
-        <v>76</v>
-      </c>
+      <c r="B146" s="9"/>
+      <c r="C146" s="10"/>
     </row>
     <row r="147" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="9"/>
+      <c r="A147" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="B147" s="9"/>
       <c r="C147" s="10"/>
     </row>
     <row r="148" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B148" s="9"/>
-      <c r="C148" s="10"/>
+      <c r="A148" s="9"/>
+      <c r="B148" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="149" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="9"/>
       <c r="B149" s="9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="9"/>
       <c r="B150" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C150" s="10" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="C150" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="9"/>
       <c r="B151" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C151" s="8">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="9"/>
-      <c r="B152" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C152" s="10" t="s">
-        <v>56</v>
+      <c r="B152" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C152" s="21" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="9"/>
-      <c r="B153" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C153" s="21" t="s">
-        <v>75</v>
+      <c r="B153" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C153" s="22" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="9"/>
-      <c r="B154" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C154" s="22" t="s">
-        <v>76</v>
-      </c>
+      <c r="B154" s="9"/>
+      <c r="C154" s="10"/>
     </row>
     <row r="155" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="9"/>
+      <c r="A155" s="9" t="s">
+        <v>57</v>
+      </c>
       <c r="B155" s="9"/>
       <c r="C155" s="10"/>
     </row>
     <row r="156" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A156" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B156" s="9"/>
-      <c r="C156" s="10"/>
+      <c r="A156" s="9"/>
+      <c r="B156" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156" s="10" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="157" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="9"/>
       <c r="B157" s="9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="9"/>
       <c r="B158" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C158" s="10" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="C158" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="9"/>
       <c r="B159" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C159" s="8">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C159" s="10" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="9"/>
-      <c r="B160" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C160" s="10" t="s">
-        <v>58</v>
+      <c r="B160" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C160" s="21" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="9"/>
-      <c r="B161" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C161" s="21" t="s">
-        <v>75</v>
+      <c r="B161" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C161" s="22" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="9"/>
-      <c r="B162" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C162" s="22" t="s">
-        <v>76</v>
-      </c>
+      <c r="B162" s="9"/>
+      <c r="C162" s="10"/>
     </row>
     <row r="163" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="9"/>
+      <c r="A163" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="B163" s="9"/>
       <c r="C163" s="10"/>
     </row>
     <row r="164" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B164" s="9"/>
-      <c r="C164" s="10"/>
+      <c r="A164" s="9"/>
+      <c r="B164" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="165" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="9"/>
       <c r="B165" s="9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="9"/>
       <c r="B166" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C166" s="10" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="C166" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="9"/>
       <c r="B167" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C167" s="8">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C167" s="10" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="9"/>
-      <c r="B168" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C168" s="10" t="s">
-        <v>60</v>
+      <c r="B168" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C168" s="21" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="9"/>
-      <c r="B169" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C169" s="21" t="s">
-        <v>73</v>
+      <c r="B169" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C169" s="22" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="9"/>
-      <c r="B170" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C170" s="22" t="s">
-        <v>74</v>
-      </c>
+      <c r="B170" s="9"/>
+      <c r="C170" s="10"/>
     </row>
     <row r="171" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A171" s="9"/>
+      <c r="A171" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="B171" s="9"/>
       <c r="C171" s="10"/>
     </row>
     <row r="172" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A172" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B172" s="9"/>
-      <c r="C172" s="10"/>
+      <c r="A172" s="9"/>
+      <c r="B172" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172" s="10" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="173" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="9"/>
       <c r="B173" s="9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="9"/>
       <c r="B174" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C174" s="10" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="C174" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="9"/>
       <c r="B175" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C175" s="8">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C175" s="10" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="9"/>
-      <c r="B176" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C176" s="10" t="s">
-        <v>62</v>
+      <c r="B176" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C176" s="21" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="9"/>
-      <c r="B177" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C177" s="21" t="s">
-        <v>73</v>
+      <c r="B177" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C177" s="22" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="9"/>
-      <c r="B178" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C178" s="22" t="s">
-        <v>74</v>
-      </c>
+      <c r="B178" s="9"/>
+      <c r="C178" s="10"/>
     </row>
     <row r="179" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A179" s="9"/>
+      <c r="A179" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="B179" s="9"/>
       <c r="C179" s="10"/>
     </row>
     <row r="180" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A180" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B180" s="9"/>
-      <c r="C180" s="10"/>
+      <c r="A180" s="9"/>
+      <c r="B180" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C180" s="10" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="181" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="9"/>
       <c r="B181" s="9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="9"/>
       <c r="B182" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C182" s="10" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="C182" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="9"/>
       <c r="B183" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C183" s="8">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C183" s="10" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="9"/>
-      <c r="B184" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C184" s="10" t="s">
-        <v>64</v>
+      <c r="B184" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C184" s="21" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="9"/>
-      <c r="B185" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C185" s="21" t="s">
-        <v>73</v>
+      <c r="B185" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C185" s="22" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="9"/>
-      <c r="B186" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C186" s="22" t="s">
-        <v>74</v>
-      </c>
+      <c r="B186" s="9"/>
+      <c r="C186" s="10"/>
     </row>
     <row r="187" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A187" s="9"/>
-      <c r="B187" s="9"/>
-      <c r="C187" s="10"/>
+      <c r="C187" s="4"/>
     </row>
     <row r="188" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C188" s="4"/>
@@ -4337,9 +4333,7 @@
     <row r="893" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C893" s="4"/>
     </row>
-    <row r="894" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C894" s="4"/>
-    </row>
+    <row r="894" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="895" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="896" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="897" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4398,7 +4392,6 @@
     <row r="950" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="951" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="952" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="953" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/specific_variables/flux-estimates-level2.xlsx
+++ b/specific_variables/flux-estimates-level2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/specific_variables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF549758-C132-AE46-96D4-CB4A0024891E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A902317-AB17-B948-A6B6-373ED4D130E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32300" yWindow="-3140" windowWidth="16360" windowHeight="19780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16540" yWindow="500" windowWidth="21860" windowHeight="19940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables-specific" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="76">
   <si>
     <t>Variable</t>
   </si>
@@ -106,9 +106,6 @@
     <t>buoyancy_flux</t>
   </si>
   <si>
-    <t>J m-2 s-1</t>
-  </si>
-  <si>
     <t>cell_methods</t>
   </si>
   <si>
@@ -235,9 +232,6 @@
     <t>&lt;derived from file&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Buoyancy Flux (&lt;w'Ts'&gt;) </t>
-  </si>
-  <si>
     <t>time: mean</t>
   </si>
   <si>
@@ -251,6 +245,9 @@
   </si>
   <si>
     <t>0, 1, 2, 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buoyancy Flux (&lt;w'Ts'&gt;*rho*Cp) </t>
   </si>
 </sst>
 </file>
@@ -332,8 +329,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -346,38 +343,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -408,9 +394,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -448,7 +434,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -554,7 +540,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -696,7 +682,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -709,8 +695,8 @@
   </sheetPr>
   <dimension ref="A1:F952"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111:XFD111"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -754,7 +740,7 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -770,7 +756,7 @@
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -778,7 +764,7 @@
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -786,26 +772,24 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>-1E+20</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13" t="s">
+      <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>70</v>
+      <c r="C8" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13" t="s">
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>70</v>
+      <c r="C9" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -829,7 +813,7 @@
       <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -861,7 +845,7 @@
       <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>-1E+20</v>
       </c>
     </row>
@@ -869,16 +853,16 @@
       <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="17" t="s">
-        <v>70</v>
+      <c r="C18" s="12" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>70</v>
+      <c r="C19" s="12" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -889,96 +873,81 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-    </row>
+    <row r="21" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="22" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="13" t="s">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-    </row>
-    <row r="23" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="15" t="s">
+    </row>
+    <row r="26" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="13" t="s">
+    <row r="27" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="6">
+        <v>-1E+20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="16">
-        <v>-1E+20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="17" t="s">
+    <row r="29" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="15" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
     <row r="31" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13" t="s">
+      <c r="B31" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" t="s">
         <v>20</v>
       </c>
     </row>
@@ -995,7 +964,7 @@
       <c r="B34" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1027,7 +996,7 @@
       <c r="B38" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="6">
         <v>-1E+20</v>
       </c>
     </row>
@@ -1035,16 +1004,16 @@
       <c r="B39" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="17" t="s">
-        <v>70</v>
+      <c r="C39" s="12" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="17" t="s">
-        <v>70</v>
+      <c r="C40" s="12" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1068,7 +1037,7 @@
       <c r="B44" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1085,7 +1054,7 @@
         <v>3</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D46" s="4"/>
     </row>
@@ -1093,42 +1062,40 @@
       <c r="B47" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="18" t="s">
-        <v>71</v>
+      <c r="C47" s="13" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="6">
         <v>-1E+20</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13" t="s">
+      <c r="B49" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="8" t="s">
-        <v>70</v>
+      <c r="C49" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13" t="s">
+      <c r="B50" t="s">
         <v>18</v>
       </c>
-      <c r="C50" s="8" t="s">
-        <v>70</v>
+      <c r="C50" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1144,7 +1111,7 @@
     </row>
     <row r="54" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C54" s="4"/>
     </row>
@@ -1152,7 +1119,7 @@
       <c r="B55" t="s">
         <v>8</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1169,7 +1136,7 @@
         <v>3</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D57" s="4"/>
     </row>
@@ -1178,41 +1145,39 @@
         <v>14</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="6">
         <v>-1E+20</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="13"/>
-      <c r="B60" s="13" t="s">
+      <c r="B60" t="s">
         <v>17</v>
       </c>
-      <c r="C60" s="8" t="s">
-        <v>70</v>
+      <c r="C60" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="13"/>
-      <c r="B61" s="13" t="s">
+      <c r="B61" t="s">
         <v>18</v>
       </c>
-      <c r="C61" s="8" t="s">
-        <v>70</v>
+      <c r="C61" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1228,7 +1193,7 @@
     </row>
     <row r="65" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C65" s="4"/>
     </row>
@@ -1236,7 +1201,7 @@
       <c r="B66" t="s">
         <v>8</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1253,7 +1218,7 @@
         <v>3</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1261,7 +1226,7 @@
         <v>13</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1269,41 +1234,39 @@
         <v>14</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" t="s">
         <v>16</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C71" s="6">
         <v>-1E+20</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="13"/>
-      <c r="B72" s="13" t="s">
+      <c r="B72" t="s">
         <v>17</v>
       </c>
-      <c r="C72" s="8" t="s">
-        <v>70</v>
+      <c r="C72" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="13"/>
-      <c r="B73" s="13" t="s">
+      <c r="B73" t="s">
         <v>18</v>
       </c>
-      <c r="C73" s="8" t="s">
-        <v>70</v>
+      <c r="C73" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" t="s">
+        <v>28</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1319,7 +1282,7 @@
     </row>
     <row r="77" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C77" s="4"/>
     </row>
@@ -1327,7 +1290,7 @@
       <c r="B78" t="s">
         <v>8</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C78" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1344,7 +1307,7 @@
         <v>3</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1352,41 +1315,39 @@
         <v>14</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" t="s">
         <v>16</v>
       </c>
-      <c r="C82" s="7">
+      <c r="C82" s="6">
         <v>-1E+20</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="13"/>
-      <c r="B83" s="13" t="s">
+      <c r="B83" t="s">
         <v>17</v>
       </c>
-      <c r="C83" s="8" t="s">
-        <v>70</v>
+      <c r="C83" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="13"/>
-      <c r="B84" s="13" t="s">
+      <c r="B84" t="s">
         <v>18</v>
       </c>
-      <c r="C84" s="8" t="s">
-        <v>70</v>
+      <c r="C84" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" t="s">
+        <v>28</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1402,7 +1363,7 @@
     </row>
     <row r="88" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C88" s="4"/>
     </row>
@@ -1410,7 +1371,7 @@
       <c r="B89" t="s">
         <v>8</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="C89" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1427,7 +1388,7 @@
         <v>3</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D91" s="4"/>
     </row>
@@ -1436,41 +1397,39 @@
         <v>14</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" t="s">
         <v>16</v>
       </c>
-      <c r="C93" s="7">
+      <c r="C93" s="6">
         <v>-1E+20</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="13"/>
-      <c r="B94" s="13" t="s">
+      <c r="B94" t="s">
         <v>17</v>
       </c>
-      <c r="C94" s="8" t="s">
-        <v>70</v>
+      <c r="C94" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="13"/>
-      <c r="B95" s="13" t="s">
+      <c r="B95" t="s">
         <v>18</v>
       </c>
-      <c r="C95" s="8" t="s">
-        <v>70</v>
+      <c r="C95" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" t="s">
+        <v>28</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1485,732 +1444,732 @@
       <c r="C98" s="4"/>
     </row>
     <row r="99" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="9" t="s">
+      <c r="A99" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B99" s="8"/>
+      <c r="C99" s="9"/>
+    </row>
+    <row r="100" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="8"/>
+      <c r="B100" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B99" s="9"/>
-      <c r="C99" s="10"/>
-    </row>
-    <row r="100" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="9"/>
-      <c r="B100" s="9" t="s">
+    </row>
+    <row r="101" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="8"/>
+      <c r="B101" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="8"/>
+      <c r="B102" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" s="7">
+        <v>1</v>
+      </c>
+      <c r="D102" s="4"/>
+    </row>
+    <row r="103" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="8"/>
+      <c r="B103" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="8"/>
+      <c r="B104" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="8"/>
+      <c r="B105" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C105" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="8"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="9"/>
+    </row>
+    <row r="107" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B107" s="8"/>
+      <c r="C107" s="9"/>
+    </row>
+    <row r="108" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="8"/>
+      <c r="B108" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C100" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="9"/>
-      <c r="B101" s="9" t="s">
+      <c r="C108" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="8"/>
+      <c r="B109" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C101" s="10" t="s">
+      <c r="C109" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="9"/>
-      <c r="B102" s="9" t="s">
+    <row r="110" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="8"/>
+      <c r="B110" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C102" s="8">
+      <c r="C110" s="7">
         <v>1</v>
       </c>
-      <c r="D102" s="4"/>
-    </row>
-    <row r="103" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="9"/>
-      <c r="B103" s="9" t="s">
+    </row>
+    <row r="111" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="8"/>
+      <c r="B111" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C103" s="10" t="s">
+      <c r="C111" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="11"/>
+      <c r="B112" s="11" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="9"/>
-      <c r="B104" s="9" t="s">
+      <c r="C112" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="11"/>
+      <c r="B113" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C104" s="21" t="s">
+      <c r="C113" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D113" s="4"/>
+    </row>
+    <row r="114" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="8"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="9"/>
+    </row>
+    <row r="115" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B115" s="8"/>
+      <c r="C115" s="9"/>
+    </row>
+    <row r="116" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="8"/>
+      <c r="B116" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="8"/>
+      <c r="B117" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="8"/>
+      <c r="B118" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="8"/>
+      <c r="B119" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="8"/>
+      <c r="B120" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C120" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="8"/>
+      <c r="B121" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C121" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="8"/>
+      <c r="B122" s="8"/>
+      <c r="C122" s="9"/>
+    </row>
+    <row r="123" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B123" s="8"/>
+      <c r="C123" s="9"/>
+    </row>
+    <row r="124" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="8"/>
+      <c r="B124" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="8"/>
+      <c r="B125" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="8"/>
+      <c r="B126" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="8"/>
+      <c r="B127" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="8"/>
+      <c r="B128" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C128" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="8"/>
+      <c r="B129" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C129" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="8"/>
+      <c r="B130" s="8"/>
+      <c r="C130" s="9"/>
+    </row>
+    <row r="131" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B131" s="8"/>
+      <c r="C131" s="9"/>
+    </row>
+    <row r="132" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="8"/>
+      <c r="B132" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="8"/>
+      <c r="B133" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="8"/>
+      <c r="B134" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="8"/>
+      <c r="B135" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="8"/>
+      <c r="B136" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C136" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="8"/>
+      <c r="B137" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C137" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A138" s="8"/>
+      <c r="B138" s="8"/>
+      <c r="C138" s="9"/>
+    </row>
+    <row r="139" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B139" s="8"/>
+      <c r="C139" s="9"/>
+    </row>
+    <row r="140" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="8"/>
+      <c r="B140" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="8"/>
+      <c r="B141" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A142" s="8"/>
+      <c r="B142" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C142" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A143" s="8"/>
+      <c r="B143" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A144" s="8"/>
+      <c r="B144" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C144" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="8"/>
+      <c r="B145" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C145" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A146" s="8"/>
+      <c r="B146" s="8"/>
+      <c r="C146" s="9"/>
+    </row>
+    <row r="147" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A147" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B147" s="8"/>
+      <c r="C147" s="9"/>
+    </row>
+    <row r="148" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="8"/>
+      <c r="B148" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="8"/>
+      <c r="B149" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="8"/>
+      <c r="B150" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C150" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A151" s="8"/>
+      <c r="B151" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A152" s="8"/>
+      <c r="B152" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C152" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A153" s="8"/>
+      <c r="B153" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C153" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A154" s="8"/>
+      <c r="B154" s="8"/>
+      <c r="C154" s="9"/>
+    </row>
+    <row r="155" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A155" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B155" s="8"/>
+      <c r="C155" s="9"/>
+    </row>
+    <row r="156" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A156" s="8"/>
+      <c r="B156" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A157" s="8"/>
+      <c r="B157" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C157" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A158" s="8"/>
+      <c r="B158" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C158" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A159" s="8"/>
+      <c r="B159" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C159" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A160" s="8"/>
+      <c r="B160" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C160" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A161" s="8"/>
+      <c r="B161" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C161" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="8"/>
+      <c r="B162" s="8"/>
+      <c r="C162" s="9"/>
+    </row>
+    <row r="163" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A163" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B163" s="8"/>
+      <c r="C163" s="9"/>
+    </row>
+    <row r="164" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A164" s="8"/>
+      <c r="B164" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C164" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A165" s="8"/>
+      <c r="B165" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C165" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A166" s="8"/>
+      <c r="B166" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C166" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A167" s="8"/>
+      <c r="B167" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C167" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A168" s="8"/>
+      <c r="B168" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C168" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A169" s="8"/>
+      <c r="B169" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C169" s="17" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="9"/>
-      <c r="B105" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C105" s="22" t="s">
+    <row r="170" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A170" s="8"/>
+      <c r="B170" s="8"/>
+      <c r="C170" s="9"/>
+    </row>
+    <row r="171" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A171" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B171" s="8"/>
+      <c r="C171" s="9"/>
+    </row>
+    <row r="172" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A172" s="8"/>
+      <c r="B172" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A173" s="8"/>
+      <c r="B173" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C173" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A174" s="8"/>
+      <c r="B174" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C174" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A175" s="8"/>
+      <c r="B175" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A176" s="8"/>
+      <c r="B176" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C176" s="16" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="9"/>
-      <c r="B106" s="9"/>
-      <c r="C106" s="10"/>
-    </row>
-    <row r="107" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B107" s="9"/>
-      <c r="C107" s="10"/>
-    </row>
-    <row r="108" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="9"/>
-      <c r="B108" s="9" t="s">
+    <row r="177" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A177" s="8"/>
+      <c r="B177" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C177" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A178" s="8"/>
+      <c r="B178" s="8"/>
+      <c r="C178" s="9"/>
+    </row>
+    <row r="179" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A179" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B179" s="8"/>
+      <c r="C179" s="9"/>
+    </row>
+    <row r="180" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A180" s="8"/>
+      <c r="B180" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C108" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="9"/>
-      <c r="B109" s="9" t="s">
+      <c r="C180" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A181" s="8"/>
+      <c r="B181" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C109" s="10" t="s">
+      <c r="C181" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="9"/>
-      <c r="B110" s="9" t="s">
+    <row r="182" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A182" s="8"/>
+      <c r="B182" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C110" s="8">
+      <c r="C182" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="9"/>
-      <c r="B111" s="9" t="s">
+    <row r="183" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A183" s="8"/>
+      <c r="B183" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C111" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="14"/>
-      <c r="B112" s="14" t="s">
+      <c r="C183" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A184" s="8"/>
+      <c r="B184" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C184" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A185" s="8"/>
+      <c r="B185" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C112" s="21" t="s">
+      <c r="C185" s="17" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="14"/>
-      <c r="B113" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C113" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="D113" s="4"/>
-    </row>
-    <row r="114" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="9"/>
-      <c r="B114" s="9"/>
-      <c r="C114" s="10"/>
-    </row>
-    <row r="115" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B115" s="9"/>
-      <c r="C115" s="10"/>
-    </row>
-    <row r="116" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="9"/>
-      <c r="B116" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="9"/>
-      <c r="B117" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C117" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="9"/>
-      <c r="B118" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C118" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="9"/>
-      <c r="B119" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C119" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="9"/>
-      <c r="B120" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C120" s="21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="9"/>
-      <c r="B121" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C121" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="9"/>
-      <c r="B122" s="9"/>
-      <c r="C122" s="10"/>
-    </row>
-    <row r="123" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B123" s="9"/>
-      <c r="C123" s="10"/>
-    </row>
-    <row r="124" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="9"/>
-      <c r="B124" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C124" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="9"/>
-      <c r="B125" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="9"/>
-      <c r="B126" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C126" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="9"/>
-      <c r="B127" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C127" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="9"/>
-      <c r="B128" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C128" s="21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="9"/>
-      <c r="B129" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C129" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="9"/>
-      <c r="B130" s="9"/>
-      <c r="C130" s="10"/>
-    </row>
-    <row r="131" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B131" s="9"/>
-      <c r="C131" s="10"/>
-    </row>
-    <row r="132" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="9"/>
-      <c r="B132" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C132" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="9"/>
-      <c r="B133" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="9"/>
-      <c r="B134" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C134" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="9"/>
-      <c r="B135" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C135" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="9"/>
-      <c r="B136" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C136" s="21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="9"/>
-      <c r="B137" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C137" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="9"/>
-      <c r="B138" s="9"/>
-      <c r="C138" s="10"/>
-    </row>
-    <row r="139" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B139" s="9"/>
-      <c r="C139" s="10"/>
-    </row>
-    <row r="140" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="9"/>
-      <c r="B140" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C140" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="9"/>
-      <c r="B141" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C141" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="9"/>
-      <c r="B142" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C142" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="9"/>
-      <c r="B143" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C143" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="9"/>
-      <c r="B144" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C144" s="21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="9"/>
-      <c r="B145" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C145" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="9"/>
-      <c r="B146" s="9"/>
-      <c r="C146" s="10"/>
-    </row>
-    <row r="147" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B147" s="9"/>
-      <c r="C147" s="10"/>
-    </row>
-    <row r="148" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="9"/>
-      <c r="B148" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C148" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="9"/>
-      <c r="B149" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C149" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A150" s="9"/>
-      <c r="B150" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C150" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="9"/>
-      <c r="B151" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C151" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A152" s="9"/>
-      <c r="B152" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C152" s="21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A153" s="9"/>
-      <c r="B153" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C153" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A154" s="9"/>
-      <c r="B154" s="9"/>
-      <c r="C154" s="10"/>
-    </row>
-    <row r="155" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B155" s="9"/>
-      <c r="C155" s="10"/>
-    </row>
-    <row r="156" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A156" s="9"/>
-      <c r="B156" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C156" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A157" s="9"/>
-      <c r="B157" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C157" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A158" s="9"/>
-      <c r="B158" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C158" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A159" s="9"/>
-      <c r="B159" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C159" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="9"/>
-      <c r="B160" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C160" s="21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A161" s="9"/>
-      <c r="B161" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C161" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A162" s="9"/>
-      <c r="B162" s="9"/>
-      <c r="C162" s="10"/>
-    </row>
-    <row r="163" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B163" s="9"/>
-      <c r="C163" s="10"/>
-    </row>
-    <row r="164" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="9"/>
-      <c r="B164" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C164" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="9"/>
-      <c r="B165" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C165" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="9"/>
-      <c r="B166" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C166" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A167" s="9"/>
-      <c r="B167" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C167" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A168" s="9"/>
-      <c r="B168" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C168" s="21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A169" s="9"/>
-      <c r="B169" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C169" s="22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A170" s="9"/>
-      <c r="B170" s="9"/>
-      <c r="C170" s="10"/>
-    </row>
-    <row r="171" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A171" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B171" s="9"/>
-      <c r="C171" s="10"/>
-    </row>
-    <row r="172" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A172" s="9"/>
-      <c r="B172" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C172" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A173" s="9"/>
-      <c r="B173" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C173" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A174" s="9"/>
-      <c r="B174" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C174" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A175" s="9"/>
-      <c r="B175" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C175" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A176" s="9"/>
-      <c r="B176" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C176" s="21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="9"/>
-      <c r="B177" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C177" s="22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A178" s="9"/>
-      <c r="B178" s="9"/>
-      <c r="C178" s="10"/>
-    </row>
-    <row r="179" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A179" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B179" s="9"/>
-      <c r="C179" s="10"/>
-    </row>
-    <row r="180" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A180" s="9"/>
-      <c r="B180" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C180" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A181" s="9"/>
-      <c r="B181" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C181" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A182" s="9"/>
-      <c r="B182" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C182" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A183" s="9"/>
-      <c r="B183" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C183" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A184" s="9"/>
-      <c r="B184" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C184" s="21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A185" s="9"/>
-      <c r="B185" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C185" s="22" t="s">
-        <v>75</v>
-      </c>
-    </row>
     <row r="186" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A186" s="9"/>
-      <c r="B186" s="9"/>
-      <c r="C186" s="10"/>
+      <c r="A186" s="8"/>
+      <c r="B186" s="8"/>
+      <c r="C186" s="9"/>
     </row>
     <row r="187" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C187" s="4"/>

--- a/specific_variables/flux-estimates-level2.xlsx
+++ b/specific_variables/flux-estimates-level2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/specific_variables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A902317-AB17-B948-A6B6-373ED4D130E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86953D6A-6F13-C949-871A-E30BC26D7075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16540" yWindow="500" windowWidth="21860" windowHeight="19940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -696,7 +696,7 @@
   <dimension ref="A1:F952"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
